--- a/pred_ohlcv/54_21/2019-10-26 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MIX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-2080525.142472845</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1803453.803772845</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1799558.916772845</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1800028.916772845</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1799528.916772845</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1799528.916772845</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1926976.329072845</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1923651.131372845</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1921782.960272845</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1927882.332472845</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1927904.332472845</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2021276.163072845</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2182170.499472845</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2651743.712572845</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2651143.712572845</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2651163.712572845</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2578520.629972845</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2495007.417975348</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2459252.950426774</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1984532.301626774</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1983355.805156186</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3626427.25676884</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4074224.54506884</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3916194.468168841</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3911173.468168841</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3847008.577468841</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4496712.659223177</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4494820.320723177</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4357037.148523177</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4347027.148523177</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4325037.148523177</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4325027.148523177</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3231380.604223177</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2806224.861423177</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2825647.284923177</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3154515.589823177</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3080873.554123177</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3883644.492923177</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3962861.720123177</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4128191.028523177</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4127738.328623177</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2301315.711352585</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>5904576.727365821</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>5783980.224165821</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>5814300.142765821</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4524544.409765821</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5598754.236165821</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5791532.86626582</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5736399.250865821</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5900668.616165821</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>5900668.616165821</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5898423.500965821</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>5805043.336565821</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>5492974.39876582</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4795365.592565821</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4802904.55626219</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4787966.135162191</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>7002801.642286344</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>7333932.444886344</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>7285847.785986343</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>7407630.751127956</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>7205513.448027955</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>7132583.584127955</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>7132752.538327955</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>7076255.363227955</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>7076296.363227955</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>7067273.502627955</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>7117416.269227955</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>7117516.269227955</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>7096322.805227955</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>7105967.355527955</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>7085967.355527955</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>6854603.448027955</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>7015752.567827955</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>6754077.652327955</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>6754077.652327955</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>6796062.614927955</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>6773373.734027955</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>5981776.401927955</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>5923819.460127954</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>6441099.457427953</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>6576392.950427953</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>6604602.398227953</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MIX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-1803453.803772845</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1921782.960272845</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2021276.163072845</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2182170.499472845</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2651743.712572845</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2651143.712572845</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2651163.712572845</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2578520.629972845</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2495007.417975348</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2459252.950426774</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1984532.301626774</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1983355.805156186</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3626427.25676884</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4074224.54506884</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3916194.468168841</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3911173.468168841</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3847008.577468841</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3751346.211368841</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4118440.63636884</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4496712.659223177</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4494820.320723177</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4357037.148523177</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4347027.148523177</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4325037.148523177</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3231380.604223177</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2806224.861423177</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2825647.284923177</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3154515.589823177</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3080873.554123177</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3883644.492923177</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3962861.720123177</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4128191.028523177</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4127738.328623177</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2301315.711352585</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>5904576.727365821</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>5783980.224165821</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>5814300.142765821</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4524544.409765821</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5598754.236165821</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5736399.250865821</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5900668.616165821</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>5900668.616165821</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5898423.500965821</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>5805043.336565821</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>5492974.39876582</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4740293.01366582</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4795365.592565821</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4802904.55626219</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4787966.135162191</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>7002801.642286344</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>7333932.444886344</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>7285847.785986343</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>7407630.751127956</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>7205513.448027955</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>7132583.584127955</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>7132752.538327955</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>7076255.363227955</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>7076296.363227955</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>7067273.502627955</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>7117416.269227955</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>7117516.269227955</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>7096322.805227955</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>7105967.355527955</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>7085967.355527955</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>6854603.448027955</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>7015752.567827955</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>6754077.652327955</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>6576392.950427953</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
